--- a/data/装机单竣工-check2.xlsx
+++ b/data/装机单竣工-check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>e5387065-ccba-44f7-8df8-1482df8f5311</t>
+          <t>45886f81-56e2-4ab5-806f-27189697e6cd</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -529,7 +529,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://188.107.245.45/#/play/show/task?task_id=df1385f9-ee96-4efc-8042-1cd228d68eb7&amp;record_id=e5387065-ccba-44f7-8df8-1482df8f5311&amp;user_id=3ab14961-af35-4e89-8406-e3f89b92271a</t>
+          <t>http://188.107.245.45/#/play/show/task?task_id=df1385f9-ee96-4efc-8042-1cd228d68eb7&amp;record_id=45886f81-56e2-4ab5-806f-27189697e6cd&amp;user_id=3ab14961-af35-4e89-8406-e3f89b92271a</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -543,45 +543,48 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2026-01-22 10:40	</t>
+          <t xml:space="preserve">2026-01-22 16:04	</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2026-01-22 10:41	</t>
+          <t xml:space="preserve">2026-01-22 16:06	</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>76秒</t>
+          <t>102秒</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Q1:接通,Q3-A:满意,Q5:测速已确认,Q6:未邀评</t>
+          <t>Q1-A:接通,Q3:满意,Q5:测速已确认,Q6-A-default:邀评</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t xml:space="preserve">AI：0.1秒
 Q1:很高兴您能接听我的电话，我是浙江移动宽带服务专员，您最近安装了移动宽带，我们想对本次装维服务简单回访几个问题，您看方便吗?
-客户：那存指别少一根。嗯。
-客户：你说装。
+客户：你是哪里呀？我没听清。
+AI：Q1-A:噢是这样的，我是浙江移动宽带服务专员，您刚安装完我们移动宽带，想简单的回访几个问题，耽误您几分钟，好吗？
+客户：嗯。
 AI：0.1秒
 Q3:您对本次装维服务整体上是否满意？
-客户：什么意思啊？
-AI：Q3-A:就是师傅给您安装下来，您感觉他的服务满不满意？
-客户：还行吧。
+客户：哦，你说吧。
+客户：还可以。
 AI：0.1秒
 Q5:已经记录，那师傅在装机完成时有没有为您进行宽带测速，并将结果展示给您确认？
-客户：有吧。
+客户：嗯，有的有的。
 AI：0.1秒
 Q6:最后一个问题，师傅是否有告知您后续收到满意度测评时请打10分满意？
-客户：嗯。
-客户：没有。
+客户：啊没听懂。
+AI：Q6-A:装机完成后，师傅是否说过让你接到电话或者短信给他打10分？
+客户：哦，这个跟我讲了。
+AI：不好意思，我没有听清，请您再详细说明一下?
+客户：和我讲过了。
 AI：0.1秒
 Q7:好的，感谢您参与本次调研，敬请您在后续的满意度调研中给予10分好评，祝您生活愉快再见！
 </t>
@@ -589,11 +592,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>你说
-有
-我是什么意思
-没有没有
-还行</t>
+          <t>嗯。。
+听不懂
+有的有的
+讲过了
+你是哪里
+还可以</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -608,107 +612,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Q1: 接通未评价-不正确; Q3-A: 满意-正确; Q5: 测速已确认-正确; Q6: 未邀评-正确</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>86d3f4ea-432e-4b04-8f94-bc7efaf29826</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18020150035</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>http://188.107.245.45/#/play/show/task?task_id=df1385f9-ee96-4efc-8042-1cd228d68eb7&amp;record_id=86d3f4ea-432e-4b04-8f94-bc7efaf29826&amp;user_id=3ab14961-af35-4e89-8406-e3f89b92271a</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2026-01-22 10:09	</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2026-01-22 10:10	</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>7</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>108秒</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Q1-C:接通,Q3-default:满意,Q5:测速已确认,Q6:邀评</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AI：0.1秒
-Q1:很高兴您能接听我的电话，我是浙江移动宽带服务专员，您最近安装了移动宽带，我们想对本次装维服务简单回访几个问题，您看方便吗?
-客户：你是i吗？
-AI：不好意思，我没有听清，请您再详细说明一下?
-客户：你是ai吗？
-AI：Q1-C:噢是这样的，我是基于人工智能技术的智能客服，虽然没有实体，但和真人一样全身心为您服务，邀请您回答几个简单的问题可以吗？
-客户：你说吧。
-AI：0.1秒
-Q3:您对本次装维服务整体上是否满意？
-客户：你说什么什么装位服务？
-AI：不好意思，我没有听清，请您再详细说明一下?
-客户：满意的不知道啊，让他满意的满意的。
-AI：0.1秒
-Q5:已经记录，那师傅在装机完成时有没有为您进行宽带测速，并将结果展示给您确认？
-客户：嗯。
-客户：应该有确认吧。
-AI：0.1秒
-Q6:最后一个问题，师傅是否有告知您后续收到满意度测评时请打10分满意？
-客户：啊，十分满意十分满意。
-AI：0.1秒
-Q7:好的，感谢您参与本次调研，敬请您在后续的满意度调研中给予10分好评，祝您生活愉快再见！
-</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>满意。
-你说吧
-你是AI吗
-应该有确认
-满意</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>南京</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Q1-C: 接通-正确; Q3-default: 满意-正确; Q5: 测速已确认-正确; Q6: 邀评-正确</t>
+          <t>Q1-A: 接通-正确; Q3: 满意-正确; Q5: 测速已确认-正确</t>
         </is>
       </c>
     </row>
